--- a/Data/mariculture_cuc_jelly_province.xlsx
+++ b/Data/mariculture_cuc_jelly_province.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Iwen\SFG\China\China Data Spreadsheets (by data)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6942" windowHeight="3198"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6945" windowHeight="3195" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="41" r:id="rId1"/>
@@ -45,20 +40,13 @@
     <sheet name="1985" sheetId="27" r:id="rId31"/>
     <sheet name="1984" sheetId="28" r:id="rId32"/>
     <sheet name="1983" sheetId="29" r:id="rId33"/>
-    <sheet name="1982" sheetId="30" r:id="rId34"/>
-    <sheet name="1981" sheetId="31" r:id="rId35"/>
-    <sheet name="1980" sheetId="32" r:id="rId36"/>
-    <sheet name="1979" sheetId="33" r:id="rId37"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="304">
-  <si>
-    <t>1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="304">
   <si>
     <t>4</t>
   </si>
@@ -967,6 +955,9 @@
   </si>
   <si>
     <t>Chongqing</t>
+  </si>
+  <si>
+    <t>Province</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1268,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1288,36 +1279,39 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>11816</v>
@@ -1329,9 +1323,9 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>139043</v>
@@ -1346,14 +1340,14 @@
         <v>62716</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>8127</v>
@@ -1365,9 +1359,9 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>3979</v>
@@ -1379,9 +1373,9 @@
         <v>765</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>31859</v>
@@ -1393,9 +1387,9 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>137055</v>
@@ -1410,9 +1404,9 @@
         <v>5602</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>5926</v>
@@ -1430,9 +1424,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>2863</v>
@@ -1441,9 +1435,9 @@
         <v>781</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>95</v>
@@ -1458,247 +1452,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
         <v>96</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>99</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>97</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>100</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>101</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>103</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>104</v>
       </c>
-      <c r="F11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1710,247 +1707,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>122</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>127</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>115</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
         <v>123</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>128</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>118</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>124</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>129</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>119</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>125</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>130</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>132</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1962,162 +1962,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>143</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>153</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" t="s">
-        <v>154</v>
       </c>
       <c r="D4" s="1">
         <v>845000</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>146</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>147</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>6000</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="1">
         <v>333070</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="1">
         <v>6306435</v>
@@ -2126,41 +2126,41 @@
         <v>20890</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
         <v>8500</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>280</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2172,250 +2172,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>300</v>
       </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>164</v>
       </c>
-      <c r="C2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>165</v>
       </c>
-      <c r="C3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>166</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
         <v>174</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D9" t="s">
         <v>178</v>
       </c>
-      <c r="E4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>170</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>175</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>179</v>
       </c>
-      <c r="E9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>171</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>176</v>
       </c>
-      <c r="D10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" t="s">
         <v>181</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>172</v>
       </c>
-      <c r="C11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" t="s">
         <v>182</v>
       </c>
-      <c r="F11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" t="s">
-        <v>183</v>
-      </c>
       <c r="F12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2427,97 +2427,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>14635</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>10085</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>3115</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>9321</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>14048</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2529,106 +2532,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2640,32 +2643,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1">
         <v>3307001</v>
@@ -2674,104 +2677,104 @@
         <v>38620</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>204</v>
       </c>
       <c r="C4" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1">
         <v>2485000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>210</v>
       </c>
       <c r="C10" s="1">
         <v>821001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>26091</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <v>11249</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>1280</v>
@@ -2786,103 +2789,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>190</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2894,91 +2900,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
       </c>
       <c r="C4" s="1">
         <v>945000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>225</v>
       </c>
       <c r="C9" s="1">
         <v>396400</v>
@@ -2987,34 +2993,34 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="1">
         <v>19594</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="1">
         <v>8654</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12">
         <v>250</v>
@@ -3029,142 +3035,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>229</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>230</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>231</v>
       </c>
       <c r="C5" s="1">
         <v>599000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>234</v>
       </c>
       <c r="C10" s="1">
         <v>424300</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>12605</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D12" s="1">
         <v>11393</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13">
@@ -3180,37 +3186,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>12145</v>
@@ -3222,9 +3231,9 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>128504</v>
@@ -3239,14 +3248,14 @@
         <v>53266</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>7976</v>
@@ -3258,9 +3267,9 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>3479</v>
@@ -3272,9 +3281,9 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>28885</v>
@@ -3286,9 +3295,9 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>142584</v>
@@ -3303,9 +3312,9 @@
         <v>4309</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>6290</v>
@@ -3323,9 +3332,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>3006</v>
@@ -3337,9 +3346,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>95</v>
@@ -3354,114 +3363,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3473,111 +3482,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3589,255 +3601,258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>264</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>265</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>266</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>269</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>270</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>271</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>272</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>273</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>274</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>275</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>276</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>277</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>278</v>
-      </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3849,111 +3864,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3965,178 +3983,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>5220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>6170</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>2857</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4148,204 +4166,207 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>266</v>
       </c>
       <c r="B15" s="1">
         <v>1770</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>3709</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>1558</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>275</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>276</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>277</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>278</v>
-      </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4357,430 +4378,430 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>262</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>264</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s">
         <v>265</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" t="s">
         <v>266</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>287</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" t="s">
         <v>269</v>
       </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>251</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>253</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>270</v>
       </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>254</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>271</v>
       </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>255</v>
       </c>
-      <c r="B25" t="s">
-        <v>272</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>256</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>274</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>257</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>275</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>258</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>276</v>
       </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>259</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>277</v>
       </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B30" t="s">
-        <v>278</v>
-      </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4792,348 +4813,348 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>262</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>264</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>265</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>266</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s">
         <v>291</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>272</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>274</v>
       </c>
-      <c r="B26" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>275</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>276</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>277</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>278</v>
-      </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5145,12 +5166,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5159,12 +5186,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5173,37 +5206,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>10165</v>
@@ -5215,9 +5251,9 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>136124</v>
@@ -5232,14 +5268,14 @@
         <v>52170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>9294</v>
@@ -5251,9 +5287,9 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>3396</v>
@@ -5265,9 +5301,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>25462</v>
@@ -5282,9 +5318,9 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>149367</v>
@@ -5299,9 +5335,9 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>6734</v>
@@ -5319,9 +5355,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>2911</v>
@@ -5336,9 +5372,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>365</v>
@@ -5354,163 +5390,166 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>22</v>
       </c>
       <c r="B20">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5522,169 +5561,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>22</v>
       </c>
       <c r="B20">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5696,247 +5735,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>262</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>264</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>265</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>266</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>269</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>270</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>271</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>272</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>273</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>274</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>275</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>276</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>277</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>278</v>
-      </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5948,222 +5990,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>22</v>
       </c>
       <c r="B20">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>278</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6172,37 +6169,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>8657</v>
@@ -6211,9 +6211,9 @@
         <v>6649</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>123138</v>
@@ -6228,14 +6228,14 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>8587</v>
@@ -6247,9 +6247,9 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>7767</v>
@@ -6261,9 +6261,9 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>20596</v>
@@ -6278,9 +6278,9 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>130920</v>
@@ -6295,9 +6295,9 @@
         <v>11852</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>8341</v>
@@ -6315,9 +6315,9 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>2729</v>
@@ -6332,9 +6332,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>340</v>
@@ -6352,40 +6352,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>6754</v>
@@ -6398,9 +6401,9 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>118164</v>
@@ -6416,14 +6419,14 @@
         <v>53831</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>4987</v>
@@ -6436,9 +6439,9 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>6755</v>
@@ -6451,9 +6454,9 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>8532</v>
@@ -6465,9 +6468,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>121234</v>
@@ -6483,9 +6486,9 @@
         <v>8887</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>7382</v>
@@ -6503,9 +6506,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>2387</v>
@@ -6520,9 +6523,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>324</v>
@@ -6541,37 +6544,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3">
         <v>4955</v>
@@ -6583,9 +6589,9 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>192584</v>
@@ -6600,14 +6606,14 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="B6">
         <v>9388</v>
@@ -6619,9 +6625,9 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -6633,9 +6639,9 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>3097</v>
@@ -6647,9 +6653,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>108596</v>
@@ -6664,9 +6670,9 @@
         <v>9651</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>6825</v>
@@ -6684,9 +6690,9 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>2333</v>
@@ -6701,9 +6707,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>320</v>
@@ -6721,40 +6727,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3">
         <v>3833</v>
@@ -6763,9 +6769,9 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>165575</v>
@@ -6780,14 +6786,14 @@
         <v>50752</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="B6">
         <v>1444</v>
@@ -6799,9 +6805,9 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>821</v>
@@ -6813,9 +6819,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2759</v>
@@ -6827,9 +6833,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>95445</v>
@@ -6844,9 +6850,9 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>7473</v>
@@ -6864,9 +6870,9 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>2749</v>
@@ -6878,9 +6884,9 @@
         <v>640</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>310</v>
@@ -6898,250 +6904,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7153,247 +7159,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="F10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>79</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/mariculture_cuc_jelly_province.xlsx
+++ b/Data/mariculture_cuc_jelly_province.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AquaFish\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6945" windowHeight="3195" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6948" windowHeight="3192" tabRatio="886" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="41" r:id="rId1"/>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="304">
   <si>
     <t>4</t>
   </si>
@@ -936,9 +941,6 @@
     <t xml:space="preserve">57 </t>
   </si>
   <si>
-    <t>all other</t>
-  </si>
-  <si>
     <t>sea cucumber</t>
   </si>
   <si>
@@ -958,12 +960,15 @@
   </si>
   <si>
     <t>Province</t>
+  </si>
+  <si>
+    <t>all squish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1268,7 +1273,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1278,38 +1283,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1323,7 +1328,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1340,12 +1345,12 @@
         <v>62716</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1359,7 +1364,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1373,7 +1378,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1409,7 @@
         <v>5602</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1452,33 +1457,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1518,7 +1523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1638,7 +1643,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1658,7 +1663,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1707,33 +1712,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1753,7 +1758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1773,7 +1778,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1793,7 +1798,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1813,7 +1818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1833,7 +1838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1853,7 +1858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1898,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1913,7 +1918,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1962,33 +1967,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2016,7 +2021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2033,7 +2038,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2047,7 +2052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2061,7 +2066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2075,7 +2080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2092,7 +2097,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2109,7 +2114,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2129,7 +2134,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2146,7 +2151,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2172,33 +2177,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2206,19 +2211,19 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2226,19 +2231,19 @@
         <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2252,33 +2257,33 @@
         <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2286,19 +2291,19 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2306,19 +2311,19 @@
         <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2329,16 +2334,16 @@
         <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2352,13 +2357,13 @@
         <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2378,7 +2383,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2389,7 +2394,7 @@
         <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" t="s">
         <v>181</v>
@@ -2398,7 +2403,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2406,16 +2411,16 @@
         <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E12" t="s">
         <v>182</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2427,21 +2432,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2457,7 +2462,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2465,12 +2470,12 @@
         <v>14635</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>10085</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2486,7 +2491,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>9321</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>14048</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2532,21 +2537,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2643,27 +2648,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2677,7 +2682,7 @@
         <v>38620</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2685,7 +2690,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2707,7 +2712,7 @@
         <v>2485000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2715,7 +2720,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2731,7 +2736,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2739,7 +2744,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2750,7 +2755,7 @@
         <v>821001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>26091</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2774,7 +2779,7 @@
         <v>11249</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>1280</v>
@@ -2789,21 +2794,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2811,7 +2816,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +2824,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2832,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -2835,7 +2840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2843,7 +2848,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2851,7 +2856,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2859,7 +2864,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2867,7 +2872,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2875,7 +2880,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2883,7 +2888,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2900,27 +2905,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2928,7 +2933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2936,7 +2941,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>945000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2955,7 +2960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2963,7 +2968,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2971,7 +2976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2993,7 +2998,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3004,7 +3009,7 @@
         <v>19594</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3015,7 +3020,7 @@
         <v>8654</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3035,27 +3040,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -3066,7 +3071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3077,7 +3082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3088,7 +3093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3099,7 +3104,7 @@
         <v>599000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3115,7 +3120,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3123,7 +3128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3131,7 +3136,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3142,7 +3147,7 @@
         <v>424300</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>12605</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3165,7 +3170,7 @@
         <v>11393</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3186,38 +3191,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3231,7 +3236,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3248,12 +3253,12 @@
         <v>53266</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3267,7 +3272,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3281,7 +3286,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3312,7 +3317,7 @@
         <v>4309</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3332,7 +3337,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3364,20 +3369,20 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -3385,7 +3390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3393,7 +3398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3409,7 +3414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3417,7 +3422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3425,7 +3430,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3433,7 +3438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3441,7 +3446,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3449,7 +3454,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3457,7 +3462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3465,7 +3470,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3482,21 +3487,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -3504,7 +3509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3512,7 +3517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3520,7 +3525,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3528,7 +3533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3536,7 +3541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3544,7 +3549,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3552,7 +3557,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3560,7 +3565,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3576,7 +3581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3584,7 +3589,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3601,21 +3606,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -3623,7 +3628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3631,7 +3636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3639,7 +3644,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>260</v>
       </c>
@@ -3647,7 +3652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -3655,7 +3660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3663,7 +3668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>262</v>
       </c>
@@ -3671,7 +3676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>263</v>
       </c>
@@ -3679,7 +3684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3687,7 +3692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3695,7 +3700,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3703,7 +3708,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>264</v>
       </c>
@@ -3711,7 +3716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3719,7 +3724,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>265</v>
       </c>
@@ -3727,7 +3732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3735,7 +3740,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -3759,7 +3764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3767,7 +3772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3775,7 +3780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3783,7 +3788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>269</v>
       </c>
@@ -3791,7 +3796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>270</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -3807,7 +3812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>272</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>273</v>
       </c>
@@ -3823,7 +3828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>274</v>
       </c>
@@ -3831,7 +3836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>275</v>
       </c>
@@ -3839,7 +3844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>276</v>
       </c>
@@ -3847,7 +3852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>277</v>
       </c>
@@ -3864,21 +3869,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -3886,7 +3891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3894,7 +3899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3902,7 +3907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3910,7 +3915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3918,7 +3923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3926,7 +3931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3934,7 +3939,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3942,7 +3947,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3950,7 +3955,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3958,7 +3963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3966,7 +3971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3983,94 +3988,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>301</v>
-      </c>
       <c r="C1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4078,22 +4083,22 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4101,7 +4106,7 @@
         <v>6170</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4109,7 +4114,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4117,42 +4122,42 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>277</v>
       </c>
@@ -4166,89 +4171,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>301</v>
-      </c>
       <c r="C1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>265</v>
       </c>
@@ -4256,27 +4261,27 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4284,7 +4289,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4292,7 +4297,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4300,32 +4305,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>274</v>
       </c>
@@ -4336,7 +4341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>275</v>
       </c>
@@ -4347,7 +4352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>276</v>
       </c>
@@ -4358,7 +4363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>277</v>
       </c>
@@ -4378,27 +4383,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4412,7 +4417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4426,7 +4431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4440,7 +4445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4454,7 +4459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4496,7 +4501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4510,7 +4515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4524,7 +4529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4538,7 +4543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4566,7 +4571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -4580,7 +4585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>236</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>246</v>
       </c>
@@ -4622,7 +4627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>247</v>
       </c>
@@ -4636,7 +4641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -4650,7 +4655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -4664,7 +4669,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -4678,7 +4683,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -4692,7 +4697,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>252</v>
       </c>
@@ -4706,7 +4711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -4720,7 +4725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>254</v>
       </c>
@@ -4734,7 +4739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>255</v>
       </c>
@@ -4748,7 +4753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>256</v>
       </c>
@@ -4762,7 +4767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>257</v>
       </c>
@@ -4776,7 +4781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>258</v>
       </c>
@@ -4790,7 +4795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>259</v>
       </c>
@@ -4813,24 +4818,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>301</v>
-      </c>
       <c r="C1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -4841,7 +4846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4852,7 +4857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4863,7 +4868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>260</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -4885,7 +4890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4896,7 +4901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>262</v>
       </c>
@@ -4907,7 +4912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>263</v>
       </c>
@@ -4918,7 +4923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4929,7 +4934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4940,7 +4945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4951,7 +4956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>264</v>
       </c>
@@ -4962,7 +4967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4973,7 +4978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>265</v>
       </c>
@@ -4984,7 +4989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4995,7 +5000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -5006,7 +5011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -5017,7 +5022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -5028,7 +5033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5039,7 +5044,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5050,7 +5055,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5061,7 +5066,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>269</v>
       </c>
@@ -5072,7 +5077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>270</v>
       </c>
@@ -5083,7 +5088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -5094,7 +5099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -5105,7 +5110,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>274</v>
       </c>
@@ -5116,7 +5121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>275</v>
       </c>
@@ -5127,7 +5132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -5138,7 +5143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>277</v>
       </c>
@@ -5149,7 +5154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>12</v>
       </c>
@@ -5164,16 +5169,19 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5184,16 +5192,19 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5206,38 +5217,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5251,7 +5262,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5268,12 +5279,12 @@
         <v>52170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5287,7 +5298,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5301,7 +5312,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5318,7 +5329,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5335,7 +5346,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5355,7 +5366,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5372,7 +5383,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5392,111 +5403,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5504,7 +5515,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5512,42 +5523,42 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>277</v>
       </c>
@@ -5561,111 +5572,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5673,7 +5684,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5681,47 +5692,47 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>277</v>
       </c>
@@ -5735,21 +5746,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -5757,7 +5768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5765,7 +5776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5773,7 +5784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>260</v>
       </c>
@@ -5781,7 +5792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -5789,7 +5800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5797,7 +5808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>262</v>
       </c>
@@ -5805,7 +5816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>263</v>
       </c>
@@ -5813,7 +5824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -5821,7 +5832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -5829,7 +5840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5837,7 +5848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>264</v>
       </c>
@@ -5845,7 +5856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5853,7 +5864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>265</v>
       </c>
@@ -5861,7 +5872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5869,7 +5880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -5877,7 +5888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -5885,7 +5896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -5893,7 +5904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5901,7 +5912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5909,7 +5920,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>269</v>
       </c>
@@ -5917,7 +5928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>270</v>
       </c>
@@ -5925,7 +5936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>271</v>
       </c>
@@ -5933,7 +5944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -5941,7 +5952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -5949,7 +5960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>274</v>
       </c>
@@ -5957,7 +5968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>275</v>
       </c>
@@ -5965,7 +5976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -5973,7 +5984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>277</v>
       </c>
@@ -5990,111 +6001,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -6102,7 +6113,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -6110,52 +6121,52 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>277</v>
       </c>
@@ -6169,38 +6180,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6211,7 +6222,7 @@
         <v>6649</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6228,12 +6239,12 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6247,7 +6258,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6261,7 +6272,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6278,7 +6289,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6295,7 +6306,7 @@
         <v>11852</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -6315,7 +6326,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6332,7 +6343,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6352,33 +6363,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6386,7 +6397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6401,7 +6412,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6419,12 +6430,12 @@
         <v>53831</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6439,7 +6450,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6454,7 +6465,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6468,7 +6479,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6486,7 +6497,7 @@
         <v>8887</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -6506,7 +6517,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6523,7 +6534,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6544,38 +6555,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6589,7 +6600,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6606,12 +6617,12 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6625,7 +6636,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6639,7 +6650,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6653,7 +6664,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6670,7 +6681,7 @@
         <v>9651</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -6690,7 +6701,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6707,7 +6718,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6727,38 +6738,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6769,7 +6780,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6786,12 +6797,12 @@
         <v>50752</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6805,7 +6816,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6819,7 +6830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6833,7 +6844,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6850,7 +6861,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -6870,7 +6881,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6884,7 +6895,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6904,33 +6915,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6950,7 +6961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6970,7 +6981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6990,7 +7001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7010,7 +7021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -7030,7 +7041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -7050,7 +7061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -7070,7 +7081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7090,7 +7101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -7110,7 +7121,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -7130,7 +7141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -7159,33 +7170,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -7205,7 +7216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7225,7 +7236,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -7245,7 +7256,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7265,7 +7276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -7285,7 +7296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -7305,7 +7316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -7325,7 +7336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7345,7 +7356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -7365,7 +7376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -7385,7 +7396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
